--- a/resultados/pretratamiento/puntos-anterior.xlsx
+++ b/resultados/pretratamiento/puntos-anterior.xlsx
@@ -25,13 +25,17 @@
     <sheet name="FDG 4 anterior" sheetId="16" r:id="rId16"/>
     <sheet name="FFLV 4 anterior" sheetId="17" r:id="rId17"/>
     <sheet name="FDLV 4 anterior" sheetId="18" r:id="rId18"/>
+    <sheet name="FFG 5 anterior" sheetId="19" r:id="rId19"/>
+    <sheet name="FDG 5 anterior" sheetId="20" r:id="rId20"/>
+    <sheet name="FFLV 5 anterior" sheetId="21" r:id="rId21"/>
+    <sheet name="FDLV 5 anterior" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="78">
   <si>
     <t>Alemania</t>
   </si>
@@ -46,6 +50,9 @@
   </si>
   <si>
     <t>Italia</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
   <si>
     <t>$h = 1, r = 4, l = 3$</t>
@@ -619,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,10 +648,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0.745</v>
@@ -661,10 +671,13 @@
       <c r="F2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.599</v>
@@ -681,10 +694,13 @@
       <c r="F3">
         <v>0.055</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.918</v>
@@ -701,10 +717,13 @@
       <c r="F4">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.676</v>
@@ -721,10 +740,13 @@
       <c r="F5">
         <v>0.065</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.31</v>
@@ -741,10 +763,13 @@
       <c r="F6">
         <v>0.037</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.642</v>
@@ -761,10 +786,13 @@
       <c r="F7">
         <v>0.007</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.325</v>
@@ -781,10 +809,13 @@
       <c r="F8">
         <v>0.257</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0.196</v>
@@ -801,10 +832,13 @@
       <c r="F9">
         <v>0.006</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.628</v>
@@ -821,10 +855,13 @@
       <c r="F10">
         <v>0.037</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0.949</v>
@@ -841,10 +878,13 @@
       <c r="F11">
         <v>0.074</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0.571</v>
@@ -861,10 +901,13 @@
       <c r="F12">
         <v>0.415</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0.844</v>
@@ -880,6 +923,9 @@
       </c>
       <c r="F13">
         <v>0.138</v>
+      </c>
+      <c r="G13">
+        <v>0.189</v>
       </c>
     </row>
   </sheetData>
@@ -889,13 +935,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,10 +957,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0.045</v>
@@ -931,10 +980,13 @@
       <c r="F2">
         <v>0.011</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.294</v>
@@ -951,10 +1003,13 @@
       <c r="F3">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0.137</v>
@@ -971,10 +1026,13 @@
       <c r="F4">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0.017</v>
@@ -991,10 +1049,13 @@
       <c r="F5">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0.093</v>
@@ -1011,10 +1072,13 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0.008999999999999999</v>
@@ -1031,10 +1095,13 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>0.017</v>
@@ -1051,10 +1118,13 @@
       <c r="F8">
         <v>0.008</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0.254</v>
@@ -1071,10 +1141,13 @@
       <c r="F9">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>0.054</v>
@@ -1091,10 +1164,13 @@
       <c r="F10">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0.004</v>
@@ -1111,10 +1187,13 @@
       <c r="F11">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0.067</v>
@@ -1131,10 +1210,13 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>0.054</v>
@@ -1149,6 +1231,9 @@
         <v>0.004</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>
@@ -1159,13 +1244,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,245 +1266,284 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>0.587</v>
+        <v>0.298</v>
       </c>
       <c r="C2">
-        <v>0.021</v>
+        <v>0.958</v>
       </c>
       <c r="D2">
-        <v>0.454</v>
+        <v>0.826</v>
       </c>
       <c r="E2">
-        <v>0.781</v>
+        <v>0.893</v>
       </c>
       <c r="F2">
-        <v>0.706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.947</v>
+      </c>
+      <c r="G2">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>0.605</v>
+        <v>0.639</v>
       </c>
       <c r="C3">
-        <v>0.066</v>
+        <v>0.792</v>
       </c>
       <c r="D3">
-        <v>0.649</v>
+        <v>0.535</v>
       </c>
       <c r="E3">
-        <v>0.439</v>
+        <v>0.571</v>
       </c>
       <c r="F3">
-        <v>0.603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.914</v>
+      </c>
+      <c r="G3">
+        <v>0.918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4">
-        <v>0.725</v>
+        <v>0.884</v>
       </c>
       <c r="C4">
-        <v>0.251</v>
+        <v>0.78</v>
       </c>
       <c r="D4">
-        <v>0.08400000000000001</v>
+        <v>0.305</v>
       </c>
       <c r="E4">
-        <v>0.234</v>
+        <v>0.175</v>
       </c>
       <c r="F4">
-        <v>0.131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.44</v>
+      </c>
+      <c r="G4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>0.843</v>
+        <v>0.745</v>
       </c>
       <c r="C5">
-        <v>0.003</v>
+        <v>0.299</v>
       </c>
       <c r="D5">
-        <v>0.52</v>
+        <v>0.956</v>
       </c>
       <c r="E5">
-        <v>0.842</v>
+        <v>0.43</v>
       </c>
       <c r="F5">
-        <v>0.678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.631</v>
+      </c>
+      <c r="G5">
+        <v>0.884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>0.893</v>
+        <v>0.498</v>
       </c>
       <c r="C6">
-        <v>0.02</v>
+        <v>0.155</v>
       </c>
       <c r="D6">
-        <v>0.5620000000000001</v>
+        <v>0.798</v>
       </c>
       <c r="E6">
-        <v>0.5639999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="F6">
-        <v>0.344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.313</v>
+      </c>
+      <c r="G6">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7">
+        <v>0.902</v>
+      </c>
+      <c r="C7">
+        <v>0.655</v>
+      </c>
+      <c r="D7">
+        <v>0.586</v>
+      </c>
+      <c r="E7">
+        <v>0.476</v>
+      </c>
+      <c r="F7">
+        <v>0.497</v>
+      </c>
+      <c r="G7">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>0.602</v>
+      </c>
+      <c r="C8">
+        <v>0.743</v>
+      </c>
+      <c r="D8">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.501</v>
+      </c>
+      <c r="F8">
+        <v>0.216</v>
+      </c>
+      <c r="G8">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>0.491</v>
+      </c>
+      <c r="C9">
+        <v>0.763</v>
+      </c>
+      <c r="D9">
+        <v>0.295</v>
+      </c>
+      <c r="E9">
+        <v>0.488</v>
+      </c>
+      <c r="F9">
+        <v>0.468</v>
+      </c>
+      <c r="G9">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.924</v>
+      </c>
+      <c r="C10">
         <v>0.975</v>
       </c>
-      <c r="C7">
-        <v>0.055</v>
-      </c>
-      <c r="D7">
-        <v>0.239</v>
-      </c>
-      <c r="E7">
-        <v>0.556</v>
-      </c>
-      <c r="F7">
-        <v>0.494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>0.992</v>
-      </c>
-      <c r="C8">
-        <v>0.016</v>
-      </c>
-      <c r="D8">
-        <v>0.136</v>
-      </c>
-      <c r="E8">
-        <v>0.423</v>
-      </c>
-      <c r="F8">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>0.906</v>
-      </c>
-      <c r="C9">
-        <v>0.022</v>
-      </c>
-      <c r="D9">
-        <v>0.42</v>
-      </c>
-      <c r="E9">
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="E10">
+        <v>0.947</v>
+      </c>
+      <c r="F10">
+        <v>0.525</v>
+      </c>
+      <c r="G10">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0.247</v>
+      </c>
+      <c r="C11">
+        <v>0.93</v>
+      </c>
+      <c r="D11">
+        <v>0.291</v>
+      </c>
+      <c r="E11">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.653</v>
+      </c>
+      <c r="G11">
+        <v>0.979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>0.413</v>
+      </c>
+      <c r="C12">
+        <v>0.91</v>
+      </c>
+      <c r="D12">
+        <v>0.176</v>
+      </c>
+      <c r="E12">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.542</v>
+      </c>
+      <c r="G12">
         <v>0.837</v>
       </c>
-      <c r="F9">
-        <v>0.101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>0.796</v>
-      </c>
-      <c r="C10">
-        <v>0.042</v>
-      </c>
-      <c r="D10">
-        <v>0.308</v>
-      </c>
-      <c r="E10">
-        <v>0.707</v>
-      </c>
-      <c r="F10">
-        <v>0.171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>0.895</v>
-      </c>
-      <c r="C11">
-        <v>0.007</v>
-      </c>
-      <c r="D11">
-        <v>0.233</v>
-      </c>
-      <c r="E11">
-        <v>0.865</v>
-      </c>
-      <c r="F11">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>0.894</v>
-      </c>
-      <c r="C12">
-        <v>0.028</v>
-      </c>
-      <c r="D12">
-        <v>0.494</v>
-      </c>
-      <c r="E12">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>0.824</v>
+        <v>0.379</v>
       </c>
       <c r="C13">
-        <v>0.454</v>
+        <v>0.917</v>
       </c>
       <c r="D13">
-        <v>0.14</v>
+        <v>0.393</v>
       </c>
       <c r="E13">
-        <v>0.148</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.637</v>
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.776</v>
       </c>
     </row>
   </sheetData>
@@ -1429,13 +1553,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,245 +1575,284 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>0.151</v>
+        <v>0.123</v>
       </c>
       <c r="C2">
-        <v>0.164</v>
+        <v>0.255</v>
       </c>
       <c r="D2">
-        <v>0.356</v>
+        <v>0.025</v>
       </c>
       <c r="E2">
-        <v>0.005</v>
+        <v>0.032</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.061</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>0.124</v>
+        <v>0.37</v>
       </c>
       <c r="C3">
+        <v>0.063</v>
+      </c>
+      <c r="D3">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.121</v>
+      </c>
+      <c r="F3">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0.804</v>
+      </c>
+      <c r="C4">
+        <v>0.101</v>
+      </c>
+      <c r="D4">
+        <v>0.241</v>
+      </c>
+      <c r="E4">
+        <v>0.026</v>
+      </c>
+      <c r="F4">
+        <v>0.026</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>0.096</v>
+      </c>
+      <c r="C5">
+        <v>0.107</v>
+      </c>
+      <c r="D5">
+        <v>0.066</v>
+      </c>
+      <c r="E5">
+        <v>0.136</v>
+      </c>
+      <c r="F5">
+        <v>0.063</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0.145</v>
+      </c>
+      <c r="C6">
+        <v>0.052</v>
+      </c>
+      <c r="D6">
+        <v>0.041</v>
+      </c>
+      <c r="E6">
+        <v>0.447</v>
+      </c>
+      <c r="F6">
         <v>0.051</v>
       </c>
-      <c r="D3">
-        <v>0.131</v>
-      </c>
-      <c r="E3">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0.268</v>
+      </c>
+      <c r="C7">
+        <v>0.077</v>
+      </c>
+      <c r="D7">
+        <v>0.148</v>
+      </c>
+      <c r="E7">
+        <v>0.146</v>
+      </c>
+      <c r="F7">
+        <v>0.02</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>0.051</v>
+      </c>
+      <c r="C8">
+        <v>0.074</v>
+      </c>
+      <c r="D8">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.327</v>
+      </c>
+      <c r="F8">
+        <v>0.154</v>
+      </c>
+      <c r="G8">
         <v>0.001</v>
       </c>
-      <c r="F3">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>0.039</v>
-      </c>
-      <c r="C4">
-        <v>0.006</v>
-      </c>
-      <c r="D4">
-        <v>0.064</v>
-      </c>
-      <c r="E4">
-        <v>0.001</v>
-      </c>
-      <c r="F4">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>0.036</v>
-      </c>
-      <c r="C5">
-        <v>0.044</v>
-      </c>
-      <c r="D5">
-        <v>0.192</v>
-      </c>
-      <c r="E5">
-        <v>0.013</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>0.058</v>
-      </c>
-      <c r="C6">
-        <v>0.005</v>
-      </c>
-      <c r="D6">
-        <v>0.15</v>
-      </c>
-      <c r="E6">
-        <v>0.005</v>
-      </c>
-      <c r="F6">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>0.002</v>
-      </c>
-      <c r="D7">
-        <v>0.077</v>
-      </c>
-      <c r="E7">
-        <v>0.002</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>0.042</v>
-      </c>
-      <c r="C8">
-        <v>0.034</v>
-      </c>
-      <c r="D8">
-        <v>0.505</v>
-      </c>
-      <c r="E8">
-        <v>0.011</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9">
+        <v>0.221</v>
+      </c>
+      <c r="C9">
+        <v>0.076</v>
+      </c>
+      <c r="D9">
+        <v>0.336</v>
+      </c>
+      <c r="E9">
+        <v>0.633</v>
+      </c>
+      <c r="F9">
+        <v>0.112</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.251</v>
+      </c>
+      <c r="D10">
+        <v>0.585</v>
+      </c>
+      <c r="E10">
+        <v>0.217</v>
+      </c>
+      <c r="F10">
+        <v>0.016</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0.016</v>
+      </c>
+      <c r="C11">
+        <v>0.261</v>
+      </c>
+      <c r="D11">
+        <v>0.113</v>
+      </c>
+      <c r="E11">
+        <v>0.196</v>
+      </c>
+      <c r="F11">
+        <v>0.059</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>0.019</v>
+      </c>
+      <c r="C12">
+        <v>0.381</v>
+      </c>
+      <c r="D12">
+        <v>0.029</v>
+      </c>
+      <c r="E12">
+        <v>0.62</v>
+      </c>
+      <c r="F12">
+        <v>0.057</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>0.434</v>
+      </c>
+      <c r="C13">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.047</v>
+      </c>
+      <c r="E13">
+        <v>0.315</v>
+      </c>
+      <c r="F13">
         <v>0.031</v>
       </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0.089</v>
-      </c>
-      <c r="E9">
-        <v>0.029</v>
-      </c>
-      <c r="F9">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>0.037</v>
-      </c>
-      <c r="C10">
-        <v>0.002</v>
-      </c>
-      <c r="D10">
-        <v>0.137</v>
-      </c>
-      <c r="E10">
-        <v>0.006</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>0.006</v>
-      </c>
-      <c r="C11">
-        <v>0.098</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-      <c r="E11">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>0.01</v>
-      </c>
-      <c r="C12">
-        <v>0.096</v>
-      </c>
-      <c r="D12">
-        <v>0.003</v>
-      </c>
-      <c r="E12">
-        <v>0.028</v>
-      </c>
-      <c r="F12">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13">
-        <v>0.002</v>
-      </c>
-      <c r="C13">
-        <v>0.046</v>
-      </c>
-      <c r="D13">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.003</v>
-      </c>
-      <c r="F13">
-        <v>0.001</v>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1699,13 +1862,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1721,245 +1884,284 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0.587</v>
+      </c>
+      <c r="C2">
+        <v>0.021</v>
+      </c>
+      <c r="D2">
+        <v>0.454</v>
+      </c>
+      <c r="E2">
+        <v>0.781</v>
+      </c>
+      <c r="F2">
+        <v>0.706</v>
+      </c>
+      <c r="G2">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0.605</v>
+      </c>
+      <c r="C3">
+        <v>0.066</v>
+      </c>
+      <c r="D3">
+        <v>0.649</v>
+      </c>
+      <c r="E3">
+        <v>0.439</v>
+      </c>
+      <c r="F3">
+        <v>0.603</v>
+      </c>
+      <c r="G3">
+        <v>0.143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0.725</v>
+      </c>
+      <c r="C4">
+        <v>0.251</v>
+      </c>
+      <c r="D4">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.234</v>
+      </c>
+      <c r="F4">
+        <v>0.131</v>
+      </c>
+      <c r="G4">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>0.843</v>
+      </c>
+      <c r="C5">
+        <v>0.003</v>
+      </c>
+      <c r="D5">
+        <v>0.52</v>
+      </c>
+      <c r="E5">
+        <v>0.842</v>
+      </c>
+      <c r="F5">
+        <v>0.678</v>
+      </c>
+      <c r="G5">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0.893</v>
+      </c>
+      <c r="C6">
+        <v>0.02</v>
+      </c>
+      <c r="D6">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.344</v>
+      </c>
+      <c r="G6">
+        <v>0.08400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0.975</v>
+      </c>
+      <c r="C7">
+        <v>0.055</v>
+      </c>
+      <c r="D7">
+        <v>0.239</v>
+      </c>
+      <c r="E7">
+        <v>0.556</v>
+      </c>
+      <c r="F7">
+        <v>0.494</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>0.992</v>
+      </c>
+      <c r="C8">
+        <v>0.016</v>
+      </c>
+      <c r="D8">
+        <v>0.136</v>
+      </c>
+      <c r="E8">
+        <v>0.423</v>
+      </c>
+      <c r="F8">
+        <v>0.995</v>
+      </c>
+      <c r="G8">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>0.906</v>
+      </c>
+      <c r="C9">
+        <v>0.022</v>
+      </c>
+      <c r="D9">
+        <v>0.42</v>
+      </c>
+      <c r="E9">
+        <v>0.837</v>
+      </c>
+      <c r="F9">
+        <v>0.101</v>
+      </c>
+      <c r="G9">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.796</v>
+      </c>
+      <c r="C10">
+        <v>0.042</v>
+      </c>
+      <c r="D10">
+        <v>0.308</v>
+      </c>
+      <c r="E10">
+        <v>0.707</v>
+      </c>
+      <c r="F10">
+        <v>0.171</v>
+      </c>
+      <c r="G10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0.895</v>
+      </c>
+      <c r="C11">
+        <v>0.007</v>
+      </c>
+      <c r="D11">
+        <v>0.233</v>
+      </c>
+      <c r="E11">
+        <v>0.865</v>
+      </c>
+      <c r="F11">
+        <v>0.986</v>
+      </c>
+      <c r="G11">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>0.894</v>
+      </c>
+      <c r="C12">
+        <v>0.028</v>
+      </c>
+      <c r="D12">
+        <v>0.494</v>
+      </c>
+      <c r="E12">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.909</v>
+      </c>
+      <c r="G12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2">
-        <v>0.27</v>
-      </c>
-      <c r="C2">
-        <v>0.64</v>
-      </c>
-      <c r="D2">
-        <v>0.895</v>
-      </c>
-      <c r="E2">
-        <v>0.33</v>
-      </c>
-      <c r="F2">
-        <v>0.283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>0.226</v>
-      </c>
-      <c r="C3">
-        <v>0.409</v>
-      </c>
-      <c r="D3">
-        <v>0.569</v>
-      </c>
-      <c r="E3">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
-        <v>0.407</v>
-      </c>
-      <c r="D4">
-        <v>0.597</v>
-      </c>
-      <c r="E4">
-        <v>0.755</v>
-      </c>
-      <c r="F4">
-        <v>0.423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <v>0.419</v>
-      </c>
-      <c r="C5">
-        <v>0.334</v>
-      </c>
-      <c r="D5">
-        <v>0.764</v>
-      </c>
-      <c r="E5">
-        <v>0.052</v>
-      </c>
-      <c r="F5">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>0.556</v>
-      </c>
-      <c r="C6">
-        <v>0.059</v>
-      </c>
-      <c r="D6">
-        <v>0.292</v>
-      </c>
-      <c r="E6">
-        <v>0.527</v>
-      </c>
-      <c r="F6">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>0.507</v>
-      </c>
-      <c r="C7">
-        <v>0.873</v>
-      </c>
-      <c r="D7">
-        <v>0.121</v>
-      </c>
-      <c r="E7">
-        <v>0.364</v>
-      </c>
-      <c r="F7">
-        <v>0.279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8">
-        <v>0.348</v>
-      </c>
-      <c r="C8">
-        <v>0.347</v>
-      </c>
-      <c r="D8">
-        <v>0.037</v>
-      </c>
-      <c r="E8">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>0.255</v>
-      </c>
-      <c r="C9">
-        <v>0.577</v>
-      </c>
-      <c r="D9">
-        <v>0.191</v>
-      </c>
-      <c r="E9">
-        <v>0.211</v>
-      </c>
-      <c r="F9">
-        <v>0.723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10">
-        <v>0.227</v>
-      </c>
-      <c r="C10">
-        <v>0.327</v>
-      </c>
-      <c r="D10">
-        <v>0.104</v>
-      </c>
-      <c r="E10">
-        <v>0.495</v>
-      </c>
-      <c r="F10">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11">
-        <v>0.186</v>
-      </c>
-      <c r="C11">
-        <v>0.757</v>
-      </c>
-      <c r="D11">
-        <v>0.015</v>
-      </c>
-      <c r="E11">
-        <v>0.462</v>
-      </c>
-      <c r="F11">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12">
-        <v>0.115</v>
-      </c>
-      <c r="C12">
-        <v>0.772</v>
-      </c>
-      <c r="D12">
-        <v>0.098</v>
-      </c>
-      <c r="E12">
-        <v>0.144</v>
-      </c>
-      <c r="F12">
-        <v>0.5669999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B13">
-        <v>0.043</v>
+        <v>0.824</v>
       </c>
       <c r="C13">
-        <v>0.803</v>
+        <v>0.454</v>
       </c>
       <c r="D13">
-        <v>0.459</v>
+        <v>0.14</v>
       </c>
       <c r="E13">
-        <v>0.474</v>
+        <v>0.148</v>
       </c>
       <c r="F13">
-        <v>0.466</v>
+        <v>0.637</v>
+      </c>
+      <c r="G13">
+        <v>0.201</v>
       </c>
     </row>
   </sheetData>
@@ -1969,13 +2171,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,245 +2193,284 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0.151</v>
+      </c>
+      <c r="C2">
+        <v>0.164</v>
+      </c>
+      <c r="D2">
+        <v>0.356</v>
+      </c>
+      <c r="E2">
+        <v>0.005</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0.124</v>
+      </c>
+      <c r="C3">
+        <v>0.051</v>
+      </c>
+      <c r="D3">
+        <v>0.131</v>
+      </c>
+      <c r="E3">
+        <v>0.001</v>
+      </c>
+      <c r="F3">
+        <v>0.008</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0.039</v>
+      </c>
+      <c r="C4">
+        <v>0.006</v>
+      </c>
+      <c r="D4">
+        <v>0.064</v>
+      </c>
+      <c r="E4">
+        <v>0.001</v>
+      </c>
+      <c r="F4">
+        <v>0.001</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>0.036</v>
+      </c>
+      <c r="C5">
+        <v>0.044</v>
+      </c>
+      <c r="D5">
+        <v>0.192</v>
+      </c>
+      <c r="E5">
+        <v>0.013</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>0.058</v>
+      </c>
+      <c r="C6">
+        <v>0.005</v>
+      </c>
+      <c r="D6">
+        <v>0.15</v>
+      </c>
+      <c r="E6">
+        <v>0.005</v>
+      </c>
+      <c r="F6">
+        <v>0.006</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>0.002</v>
+      </c>
+      <c r="D7">
+        <v>0.077</v>
+      </c>
+      <c r="E7">
+        <v>0.002</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>0.042</v>
+      </c>
+      <c r="C8">
+        <v>0.034</v>
+      </c>
+      <c r="D8">
+        <v>0.505</v>
+      </c>
+      <c r="E8">
+        <v>0.011</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>0.031</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>0.089</v>
+      </c>
+      <c r="E9">
+        <v>0.029</v>
+      </c>
+      <c r="F9">
+        <v>0.018</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.037</v>
+      </c>
+      <c r="C10">
+        <v>0.002</v>
+      </c>
+      <c r="D10">
+        <v>0.137</v>
+      </c>
+      <c r="E10">
+        <v>0.006</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0.006</v>
+      </c>
+      <c r="C11">
+        <v>0.098</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12">
+        <v>0.096</v>
+      </c>
+      <c r="D12">
+        <v>0.003</v>
+      </c>
+      <c r="E12">
+        <v>0.028</v>
+      </c>
+      <c r="F12">
+        <v>0.016</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2">
-        <v>0.9330000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0.017</v>
-      </c>
-      <c r="D2">
-        <v>0.781</v>
-      </c>
-      <c r="E2">
-        <v>0.526</v>
-      </c>
-      <c r="F2">
-        <v>0.439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3">
-        <v>0.897</v>
-      </c>
-      <c r="C3">
-        <v>0.574</v>
-      </c>
-      <c r="D3">
-        <v>0.302</v>
-      </c>
-      <c r="E3">
-        <v>0.964</v>
-      </c>
-      <c r="F3">
-        <v>0.612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <v>0.204</v>
-      </c>
-      <c r="C4">
-        <v>0.405</v>
-      </c>
-      <c r="D4">
-        <v>0.117</v>
-      </c>
-      <c r="E4">
-        <v>0.698</v>
-      </c>
-      <c r="F4">
-        <v>0.635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <v>0.593</v>
-      </c>
-      <c r="C5">
-        <v>0.018</v>
-      </c>
-      <c r="D5">
-        <v>0.8110000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.421</v>
-      </c>
-      <c r="F5">
-        <v>0.323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.472</v>
-      </c>
-      <c r="D6">
-        <v>0.211</v>
-      </c>
-      <c r="E6">
-        <v>0.717</v>
-      </c>
-      <c r="F6">
-        <v>0.801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>0.511</v>
-      </c>
-      <c r="C7">
-        <v>0.395</v>
-      </c>
-      <c r="D7">
-        <v>0.506</v>
-      </c>
-      <c r="E7">
-        <v>0.876</v>
-      </c>
-      <c r="F7">
-        <v>0.741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8">
-        <v>0.76</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8">
-        <v>0.443</v>
-      </c>
-      <c r="E8">
-        <v>0.854</v>
-      </c>
-      <c r="F8">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>0.574</v>
-      </c>
-      <c r="C9">
-        <v>0.351</v>
-      </c>
-      <c r="D9">
-        <v>0.171</v>
-      </c>
-      <c r="E9">
-        <v>0.864</v>
-      </c>
-      <c r="F9">
-        <v>0.139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10">
-        <v>0.247</v>
-      </c>
-      <c r="C10">
-        <v>0.176</v>
-      </c>
-      <c r="D10">
-        <v>0.35</v>
-      </c>
-      <c r="E10">
-        <v>0.751</v>
-      </c>
-      <c r="F10">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11">
-        <v>0.441</v>
-      </c>
-      <c r="C11">
-        <v>0.571</v>
-      </c>
-      <c r="D11">
-        <v>0.318</v>
-      </c>
-      <c r="E11">
-        <v>0.753</v>
-      </c>
-      <c r="F11">
-        <v>0.132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="C12">
-        <v>0.822</v>
-      </c>
-      <c r="D12">
-        <v>0.447</v>
-      </c>
-      <c r="E12">
-        <v>0.356</v>
-      </c>
-      <c r="F12">
-        <v>0.551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B13">
-        <v>0.405</v>
+        <v>0.002</v>
       </c>
       <c r="C13">
-        <v>0.257</v>
+        <v>0.046</v>
       </c>
       <c r="D13">
-        <v>0.498</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E13">
-        <v>0.82</v>
+        <v>0.003</v>
       </c>
       <c r="F13">
-        <v>0.846</v>
+        <v>0.001</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2239,13 +2480,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2261,245 +2502,284 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>0.27</v>
+      </c>
+      <c r="C2">
+        <v>0.64</v>
+      </c>
+      <c r="D2">
+        <v>0.895</v>
+      </c>
+      <c r="E2">
+        <v>0.33</v>
+      </c>
+      <c r="F2">
+        <v>0.283</v>
+      </c>
+      <c r="G2">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>0.226</v>
+      </c>
+      <c r="C3">
+        <v>0.409</v>
+      </c>
+      <c r="D3">
+        <v>0.569</v>
+      </c>
+      <c r="E3">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.385</v>
+      </c>
+      <c r="G3">
+        <v>0.6879999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <v>0.407</v>
+      </c>
+      <c r="D4">
+        <v>0.597</v>
+      </c>
+      <c r="E4">
+        <v>0.755</v>
+      </c>
+      <c r="F4">
+        <v>0.423</v>
+      </c>
+      <c r="G4">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0.419</v>
+      </c>
+      <c r="C5">
+        <v>0.334</v>
+      </c>
+      <c r="D5">
+        <v>0.764</v>
+      </c>
+      <c r="E5">
+        <v>0.052</v>
+      </c>
+      <c r="F5">
+        <v>0.318</v>
+      </c>
+      <c r="G5">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>0.556</v>
+      </c>
+      <c r="C6">
+        <v>0.059</v>
+      </c>
+      <c r="D6">
+        <v>0.292</v>
+      </c>
+      <c r="E6">
+        <v>0.527</v>
+      </c>
+      <c r="F6">
+        <v>0.373</v>
+      </c>
+      <c r="G6">
+        <v>0.856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>0.507</v>
+      </c>
+      <c r="C7">
+        <v>0.873</v>
+      </c>
+      <c r="D7">
+        <v>0.121</v>
+      </c>
+      <c r="E7">
+        <v>0.364</v>
+      </c>
+      <c r="F7">
+        <v>0.279</v>
+      </c>
+      <c r="G7">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.348</v>
+      </c>
+      <c r="C8">
+        <v>0.347</v>
+      </c>
+      <c r="D8">
+        <v>0.037</v>
+      </c>
+      <c r="E8">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.494</v>
+      </c>
+      <c r="G8">
+        <v>0.632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>0.255</v>
+      </c>
+      <c r="C9">
+        <v>0.577</v>
+      </c>
+      <c r="D9">
+        <v>0.191</v>
+      </c>
+      <c r="E9">
+        <v>0.211</v>
+      </c>
+      <c r="F9">
+        <v>0.723</v>
+      </c>
+      <c r="G9">
+        <v>0.729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>0.227</v>
+      </c>
+      <c r="C10">
+        <v>0.327</v>
+      </c>
+      <c r="D10">
+        <v>0.104</v>
+      </c>
+      <c r="E10">
+        <v>0.495</v>
+      </c>
+      <c r="F10">
+        <v>0.215</v>
+      </c>
+      <c r="G10">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>0.186</v>
+      </c>
+      <c r="C11">
+        <v>0.757</v>
+      </c>
+      <c r="D11">
+        <v>0.015</v>
+      </c>
+      <c r="E11">
+        <v>0.462</v>
+      </c>
+      <c r="F11">
+        <v>0.222</v>
+      </c>
+      <c r="G11">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0.115</v>
+      </c>
+      <c r="C12">
+        <v>0.772</v>
+      </c>
+      <c r="D12">
+        <v>0.098</v>
+      </c>
+      <c r="E12">
+        <v>0.144</v>
+      </c>
+      <c r="F12">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <v>0.841</v>
-      </c>
-      <c r="C2">
-        <v>0.261</v>
-      </c>
-      <c r="D2">
-        <v>0.797</v>
-      </c>
-      <c r="E2">
-        <v>0.295</v>
-      </c>
-      <c r="F2">
-        <v>0.662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
-        <v>0.511</v>
-      </c>
-      <c r="C3">
-        <v>0.105</v>
-      </c>
-      <c r="D3">
-        <v>0.389</v>
-      </c>
-      <c r="E3">
-        <v>0.055</v>
-      </c>
-      <c r="F3">
-        <v>0.842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>0.999</v>
-      </c>
-      <c r="C4">
-        <v>0.23</v>
-      </c>
-      <c r="D4">
-        <v>0.236</v>
-      </c>
-      <c r="E4">
-        <v>0.226</v>
-      </c>
-      <c r="F4">
-        <v>0.8149999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>0.267</v>
-      </c>
-      <c r="C5">
-        <v>0.286</v>
-      </c>
-      <c r="D5">
-        <v>0.894</v>
-      </c>
-      <c r="E5">
-        <v>0.365</v>
-      </c>
-      <c r="F5">
-        <v>0.924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>0.365</v>
-      </c>
-      <c r="C6">
-        <v>0.399</v>
-      </c>
-      <c r="D6">
-        <v>0.913</v>
-      </c>
-      <c r="E6">
-        <v>0.297</v>
-      </c>
-      <c r="F6">
-        <v>0.993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>0.676</v>
-      </c>
-      <c r="C7">
-        <v>0.283</v>
-      </c>
-      <c r="D7">
-        <v>0.913</v>
-      </c>
-      <c r="E7">
-        <v>0.119</v>
-      </c>
-      <c r="F7">
-        <v>0.544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>0.204</v>
-      </c>
-      <c r="C8">
-        <v>0.237</v>
-      </c>
-      <c r="D8">
-        <v>0.355</v>
-      </c>
-      <c r="E8">
-        <v>0.583</v>
-      </c>
-      <c r="F8">
-        <v>0.775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>0.303</v>
-      </c>
-      <c r="C9">
-        <v>0.169</v>
-      </c>
-      <c r="D9">
-        <v>0.611</v>
-      </c>
-      <c r="E9">
-        <v>0.08</v>
-      </c>
-      <c r="F9">
-        <v>0.728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10">
+      <c r="B13">
+        <v>0.043</v>
+      </c>
+      <c r="C13">
+        <v>0.803</v>
+      </c>
+      <c r="D13">
         <v>0.459</v>
       </c>
-      <c r="C10">
-        <v>0.638</v>
-      </c>
-      <c r="D10">
-        <v>0.866</v>
-      </c>
-      <c r="E10">
-        <v>0.373</v>
-      </c>
-      <c r="F10">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>0.532</v>
-      </c>
-      <c r="C11">
-        <v>0.492</v>
-      </c>
-      <c r="D11">
-        <v>0.501</v>
-      </c>
-      <c r="E11">
-        <v>0.791</v>
-      </c>
-      <c r="F11">
-        <v>0.846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>0.49</v>
-      </c>
-      <c r="C12">
-        <v>0.517</v>
-      </c>
-      <c r="D12">
-        <v>0.438</v>
-      </c>
-      <c r="E12">
-        <v>0.472</v>
-      </c>
-      <c r="F12">
-        <v>0.871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13">
-        <v>0.423</v>
-      </c>
-      <c r="C13">
-        <v>0.836</v>
-      </c>
-      <c r="D13">
-        <v>0.704</v>
-      </c>
       <c r="E13">
-        <v>0.5649999999999999</v>
+        <v>0.474</v>
       </c>
       <c r="F13">
-        <v>0.8179999999999999</v>
+        <v>0.466</v>
+      </c>
+      <c r="G13">
+        <v>0.242</v>
       </c>
     </row>
   </sheetData>
@@ -2509,13 +2789,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2531,245 +2811,284 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.017</v>
+      </c>
+      <c r="D2">
+        <v>0.781</v>
+      </c>
+      <c r="E2">
+        <v>0.526</v>
+      </c>
+      <c r="F2">
+        <v>0.439</v>
+      </c>
+      <c r="G2">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>0.897</v>
+      </c>
+      <c r="C3">
+        <v>0.574</v>
+      </c>
+      <c r="D3">
+        <v>0.302</v>
+      </c>
+      <c r="E3">
+        <v>0.964</v>
+      </c>
+      <c r="F3">
+        <v>0.612</v>
+      </c>
+      <c r="G3">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>0.204</v>
+      </c>
+      <c r="C4">
+        <v>0.405</v>
+      </c>
+      <c r="D4">
+        <v>0.117</v>
+      </c>
+      <c r="E4">
+        <v>0.698</v>
+      </c>
+      <c r="F4">
+        <v>0.635</v>
+      </c>
+      <c r="G4">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0.593</v>
+      </c>
+      <c r="C5">
+        <v>0.018</v>
+      </c>
+      <c r="D5">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.421</v>
+      </c>
+      <c r="F5">
+        <v>0.323</v>
+      </c>
+      <c r="G5">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.472</v>
+      </c>
+      <c r="D6">
+        <v>0.211</v>
+      </c>
+      <c r="E6">
+        <v>0.717</v>
+      </c>
+      <c r="F6">
+        <v>0.801</v>
+      </c>
+      <c r="G6">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>0.511</v>
+      </c>
+      <c r="C7">
+        <v>0.395</v>
+      </c>
+      <c r="D7">
+        <v>0.506</v>
+      </c>
+      <c r="E7">
+        <v>0.876</v>
+      </c>
+      <c r="F7">
+        <v>0.741</v>
+      </c>
+      <c r="G7">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.76</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0.443</v>
+      </c>
+      <c r="E8">
+        <v>0.854</v>
+      </c>
+      <c r="F8">
+        <v>0.04</v>
+      </c>
+      <c r="G8">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>0.574</v>
+      </c>
+      <c r="C9">
+        <v>0.351</v>
+      </c>
+      <c r="D9">
+        <v>0.171</v>
+      </c>
+      <c r="E9">
+        <v>0.864</v>
+      </c>
+      <c r="F9">
+        <v>0.139</v>
+      </c>
+      <c r="G9">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>0.247</v>
+      </c>
+      <c r="C10">
+        <v>0.176</v>
+      </c>
+      <c r="D10">
+        <v>0.35</v>
+      </c>
+      <c r="E10">
+        <v>0.751</v>
+      </c>
+      <c r="F10">
+        <v>0.46</v>
+      </c>
+      <c r="G10">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>0.441</v>
+      </c>
+      <c r="C11">
+        <v>0.571</v>
+      </c>
+      <c r="D11">
+        <v>0.318</v>
+      </c>
+      <c r="E11">
+        <v>0.753</v>
+      </c>
+      <c r="F11">
+        <v>0.132</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.822</v>
+      </c>
+      <c r="D12">
+        <v>0.447</v>
+      </c>
+      <c r="E12">
+        <v>0.356</v>
+      </c>
+      <c r="F12">
+        <v>0.551</v>
+      </c>
+      <c r="G12">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <v>0.438</v>
-      </c>
-      <c r="C2">
-        <v>0.554</v>
-      </c>
-      <c r="D2">
-        <v>0.272</v>
-      </c>
-      <c r="E2">
-        <v>0.704</v>
-      </c>
-      <c r="F2">
-        <v>0.144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
-        <v>0.75</v>
-      </c>
-      <c r="C3">
-        <v>0.874</v>
-      </c>
-      <c r="D3">
-        <v>0.299</v>
-      </c>
-      <c r="E3">
-        <v>0.71</v>
-      </c>
-      <c r="F3">
-        <v>0.116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>0.492</v>
-      </c>
-      <c r="C4">
-        <v>0.789</v>
-      </c>
-      <c r="D4">
-        <v>0.259</v>
-      </c>
-      <c r="E4">
-        <v>0.772</v>
-      </c>
-      <c r="F4">
-        <v>0.294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>0.513</v>
-      </c>
-      <c r="C5">
-        <v>0.083</v>
-      </c>
-      <c r="D5">
-        <v>0.186</v>
-      </c>
-      <c r="E5">
-        <v>0.591</v>
-      </c>
-      <c r="F5">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>0.465</v>
-      </c>
-      <c r="C6">
-        <v>0.74</v>
-      </c>
-      <c r="D6">
-        <v>0.318</v>
-      </c>
-      <c r="E6">
-        <v>0.73</v>
-      </c>
-      <c r="F6">
-        <v>0.065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>0.398</v>
-      </c>
-      <c r="C7">
-        <v>0.358</v>
-      </c>
-      <c r="D7">
-        <v>0.229</v>
-      </c>
-      <c r="E7">
-        <v>0.678</v>
-      </c>
-      <c r="F7">
-        <v>0.439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.03</v>
-      </c>
-      <c r="D8">
-        <v>0.614</v>
-      </c>
-      <c r="E8">
-        <v>0.267</v>
-      </c>
-      <c r="F8">
-        <v>0.298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>0.312</v>
-      </c>
-      <c r="C9">
-        <v>0.608</v>
-      </c>
-      <c r="D9">
-        <v>0.591</v>
-      </c>
-      <c r="E9">
-        <v>0.225</v>
-      </c>
-      <c r="F9">
-        <v>0.08500000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10">
-        <v>0.503</v>
-      </c>
-      <c r="C10">
-        <v>0.164</v>
-      </c>
-      <c r="D10">
-        <v>0.199</v>
-      </c>
-      <c r="E10">
-        <v>0.288</v>
-      </c>
-      <c r="F10">
-        <v>0.304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>0.331</v>
-      </c>
-      <c r="C11">
-        <v>0.127</v>
-      </c>
-      <c r="D11">
-        <v>0.57</v>
-      </c>
-      <c r="E11">
-        <v>0.235</v>
-      </c>
-      <c r="F11">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>0.267</v>
-      </c>
-      <c r="C12">
-        <v>0.059</v>
-      </c>
-      <c r="D12">
-        <v>0.223</v>
-      </c>
-      <c r="E12">
-        <v>0.391</v>
-      </c>
-      <c r="F12">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="B13">
-        <v>0.056</v>
+        <v>0.405</v>
       </c>
       <c r="C13">
-        <v>0.118</v>
+        <v>0.257</v>
       </c>
       <c r="D13">
-        <v>0.001</v>
+        <v>0.498</v>
       </c>
       <c r="E13">
-        <v>0.617</v>
+        <v>0.82</v>
       </c>
       <c r="F13">
-        <v>0.422</v>
+        <v>0.846</v>
+      </c>
+      <c r="G13">
+        <v>0.154</v>
       </c>
     </row>
   </sheetData>
@@ -2779,13 +3098,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2801,245 +3120,284 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2">
+        <v>0.378</v>
+      </c>
+      <c r="C2">
+        <v>0.102</v>
+      </c>
+      <c r="D2">
+        <v>0.167</v>
+      </c>
+      <c r="E2">
+        <v>0.832</v>
+      </c>
+      <c r="F2">
+        <v>0.82</v>
+      </c>
+      <c r="G2">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>0.198</v>
+      </c>
+      <c r="C3">
+        <v>0.068</v>
+      </c>
+      <c r="D3">
+        <v>0.188</v>
+      </c>
+      <c r="E3">
+        <v>0.222</v>
+      </c>
+      <c r="F3">
+        <v>0.671</v>
+      </c>
+      <c r="G3">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>0.42</v>
+      </c>
+      <c r="C4">
+        <v>0.061</v>
+      </c>
+      <c r="D4">
+        <v>0.202</v>
+      </c>
+      <c r="E4">
+        <v>0.149</v>
+      </c>
+      <c r="F4">
+        <v>0.122</v>
+      </c>
+      <c r="G4">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0.308</v>
+      </c>
+      <c r="C5">
+        <v>0.269</v>
+      </c>
+      <c r="D5">
+        <v>0.18</v>
+      </c>
+      <c r="E5">
+        <v>0.385</v>
+      </c>
+      <c r="F5">
+        <v>0.205</v>
+      </c>
+      <c r="G5">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>0.348</v>
+      </c>
+      <c r="C6">
+        <v>0.011</v>
+      </c>
+      <c r="D6">
+        <v>0.513</v>
+      </c>
+      <c r="E6">
+        <v>0.206</v>
+      </c>
+      <c r="F6">
+        <v>0.232</v>
+      </c>
+      <c r="G6">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>0.963</v>
+      </c>
+      <c r="C7">
+        <v>0.006</v>
+      </c>
+      <c r="D7">
+        <v>0.597</v>
+      </c>
+      <c r="E7">
+        <v>0.229</v>
+      </c>
+      <c r="F7">
+        <v>0.252</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.624</v>
+      </c>
+      <c r="C8">
+        <v>0.347</v>
+      </c>
+      <c r="D8">
+        <v>0.011</v>
+      </c>
+      <c r="E8">
+        <v>0.316</v>
+      </c>
+      <c r="F8">
+        <v>0.652</v>
+      </c>
+      <c r="G8">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>0.882</v>
+      </c>
+      <c r="C9">
+        <v>0.002</v>
+      </c>
+      <c r="D9">
+        <v>0.089</v>
+      </c>
+      <c r="E9">
+        <v>0.134</v>
+      </c>
+      <c r="F9">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>0.831</v>
+      </c>
+      <c r="C10">
+        <v>0.007</v>
+      </c>
+      <c r="D10">
+        <v>0.193</v>
+      </c>
+      <c r="E10">
+        <v>0.286</v>
+      </c>
+      <c r="F10">
+        <v>0.259</v>
+      </c>
+      <c r="G10">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>0.177</v>
+      </c>
+      <c r="C11">
+        <v>0.769</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <v>0.219</v>
+      </c>
+      <c r="F11">
+        <v>0.345</v>
+      </c>
+      <c r="G11">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0.368</v>
+      </c>
+      <c r="C12">
+        <v>0.014</v>
+      </c>
+      <c r="D12">
+        <v>0.194</v>
+      </c>
+      <c r="E12">
+        <v>0.419</v>
+      </c>
+      <c r="F12">
+        <v>0.773</v>
+      </c>
+      <c r="G12">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2">
-        <v>0.467</v>
-      </c>
-      <c r="C2">
-        <v>0.436</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0.492</v>
-      </c>
-      <c r="F2">
-        <v>0.966</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
-        <v>0.7</v>
-      </c>
-      <c r="C3">
-        <v>0.053</v>
-      </c>
-      <c r="D3">
-        <v>0.427</v>
-      </c>
-      <c r="E3">
-        <v>0.267</v>
-      </c>
-      <c r="F3">
-        <v>0.6850000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>0.454</v>
-      </c>
-      <c r="C4">
-        <v>0.006</v>
-      </c>
-      <c r="D4">
-        <v>0.517</v>
-      </c>
-      <c r="E4">
-        <v>0.185</v>
-      </c>
-      <c r="F4">
-        <v>0.397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>0.275</v>
-      </c>
-      <c r="C5">
-        <v>0.366</v>
-      </c>
-      <c r="D5">
-        <v>0.061</v>
-      </c>
-      <c r="E5">
-        <v>0.538</v>
-      </c>
-      <c r="F5">
-        <v>0.586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>0.58</v>
-      </c>
-      <c r="C6">
-        <v>0.121</v>
-      </c>
-      <c r="D6">
-        <v>0.756</v>
-      </c>
-      <c r="E6">
-        <v>0.239</v>
-      </c>
-      <c r="F6">
-        <v>0.392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>0.984</v>
-      </c>
-      <c r="C7">
-        <v>0.226</v>
-      </c>
-      <c r="D7">
-        <v>0.751</v>
-      </c>
-      <c r="E7">
-        <v>0.291</v>
-      </c>
-      <c r="F7">
-        <v>0.325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>0.178</v>
-      </c>
-      <c r="C8">
-        <v>0.294</v>
-      </c>
-      <c r="D8">
-        <v>0.017</v>
-      </c>
-      <c r="E8">
-        <v>0.045</v>
-      </c>
-      <c r="F8">
-        <v>0.574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.065</v>
-      </c>
-      <c r="D9">
-        <v>0.482</v>
-      </c>
-      <c r="E9">
-        <v>0.251</v>
-      </c>
-      <c r="F9">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10">
-        <v>0.198</v>
-      </c>
-      <c r="C10">
-        <v>0.214</v>
-      </c>
-      <c r="D10">
-        <v>0.486</v>
-      </c>
-      <c r="E10">
-        <v>0.741</v>
-      </c>
-      <c r="F10">
-        <v>0.538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11">
-        <v>0.151</v>
-      </c>
-      <c r="C11">
-        <v>0.388</v>
-      </c>
-      <c r="D11">
-        <v>0.044</v>
-      </c>
-      <c r="E11">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12">
-        <v>0.825</v>
-      </c>
-      <c r="C12">
-        <v>0.171</v>
-      </c>
-      <c r="D12">
-        <v>0.092</v>
-      </c>
-      <c r="E12">
-        <v>0.518</v>
-      </c>
-      <c r="F12">
-        <v>0.765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="B13">
-        <v>0.752</v>
+        <v>0.777</v>
       </c>
       <c r="C13">
-        <v>0.165</v>
+        <v>0.025</v>
       </c>
       <c r="D13">
-        <v>0.63</v>
+        <v>0.379</v>
       </c>
       <c r="E13">
-        <v>0.707</v>
+        <v>0.546</v>
       </c>
       <c r="F13">
-        <v>0.92</v>
+        <v>0.32</v>
+      </c>
+      <c r="G13">
+        <v>0.225</v>
       </c>
     </row>
   </sheetData>
@@ -3049,13 +3407,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3071,245 +3429,593 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>0.08699999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="C2">
-        <v>0.06900000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="D2">
-        <v>0.604</v>
+        <v>0.606</v>
       </c>
       <c r="E2">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F2">
-        <v>0.008999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.003</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>0.31</v>
+        <v>0.199</v>
       </c>
       <c r="C3">
-        <v>0.031</v>
+        <v>0.014</v>
       </c>
       <c r="D3">
-        <v>0.6899999999999999</v>
+        <v>0.257</v>
       </c>
       <c r="E3">
-        <v>0.024</v>
+        <v>0.005</v>
       </c>
       <c r="F3">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.015</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>0.063</v>
+        <v>0.017</v>
       </c>
       <c r="C4">
-        <v>0.047</v>
+        <v>0.036</v>
       </c>
       <c r="D4">
-        <v>0.284</v>
+        <v>0.352</v>
       </c>
       <c r="E4">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.005</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>0.056</v>
+        <v>0.074</v>
       </c>
       <c r="C5">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="D5">
-        <v>0.5669999999999999</v>
+        <v>0.356</v>
       </c>
       <c r="E5">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="F5">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B6">
+        <v>0.023</v>
+      </c>
+      <c r="C6">
+        <v>0.005</v>
+      </c>
+      <c r="D6">
+        <v>0.192</v>
+      </c>
+      <c r="E6">
+        <v>0.043</v>
+      </c>
+      <c r="F6">
+        <v>0.011</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>0.001</v>
+      </c>
+      <c r="C7">
+        <v>0.005</v>
+      </c>
+      <c r="D7">
+        <v>0.105</v>
+      </c>
+      <c r="E7">
         <v>0.06900000000000001</v>
       </c>
-      <c r="C6">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>0.063</v>
+      </c>
+      <c r="C8">
         <v>0.008999999999999999</v>
       </c>
-      <c r="D6">
-        <v>0.49</v>
-      </c>
-      <c r="E6">
-        <v>0.143</v>
-      </c>
-      <c r="F6">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>0.004</v>
-      </c>
-      <c r="D7">
-        <v>0.197</v>
-      </c>
-      <c r="E7">
-        <v>0.047</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>0.048</v>
-      </c>
-      <c r="C8">
-        <v>0.028</v>
-      </c>
       <c r="D8">
-        <v>0.36</v>
+        <v>0.255</v>
       </c>
       <c r="E8">
-        <v>0.034</v>
+        <v>0.005</v>
       </c>
       <c r="F8">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.001</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>0.037</v>
+        <v>0.089</v>
       </c>
       <c r="C9">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="D9">
-        <v>0.638</v>
+        <v>0.21</v>
       </c>
       <c r="E9">
-        <v>0.129</v>
+        <v>0.064</v>
       </c>
       <c r="F9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.041</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>0.124</v>
+        <v>0.011</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D10">
-        <v>0.488</v>
+        <v>0.346</v>
       </c>
       <c r="E10">
-        <v>0.022</v>
+        <v>0.12</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.001</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>0.017</v>
+        <v>0.039</v>
       </c>
       <c r="C11">
-        <v>0.083</v>
+        <v>0.052</v>
       </c>
       <c r="D11">
-        <v>0.082</v>
+        <v>0.024</v>
       </c>
       <c r="E11">
-        <v>0.144</v>
+        <v>0.008</v>
       </c>
       <c r="F11">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>0.008</v>
       </c>
       <c r="C12">
+        <v>0.098</v>
+      </c>
+      <c r="D12">
+        <v>0.013</v>
+      </c>
+      <c r="E12">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>0.001</v>
+      </c>
+      <c r="C13">
+        <v>0.103</v>
+      </c>
+      <c r="D13">
+        <v>0.048</v>
+      </c>
+      <c r="E13">
+        <v>0.148</v>
+      </c>
+      <c r="F13">
+        <v>0.002</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>0.841</v>
+      </c>
+      <c r="C2">
+        <v>0.261</v>
+      </c>
+      <c r="D2">
+        <v>0.797</v>
+      </c>
+      <c r="E2">
+        <v>0.295</v>
+      </c>
+      <c r="F2">
+        <v>0.662</v>
+      </c>
+      <c r="G2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>0.511</v>
+      </c>
+      <c r="C3">
+        <v>0.105</v>
+      </c>
+      <c r="D3">
+        <v>0.389</v>
+      </c>
+      <c r="E3">
+        <v>0.055</v>
+      </c>
+      <c r="F3">
+        <v>0.842</v>
+      </c>
+      <c r="G3">
         <v>0.047</v>
       </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>0.999</v>
+      </c>
+      <c r="C4">
+        <v>0.23</v>
+      </c>
+      <c r="D4">
+        <v>0.236</v>
+      </c>
+      <c r="E4">
+        <v>0.226</v>
+      </c>
+      <c r="F4">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>0.267</v>
+      </c>
+      <c r="C5">
+        <v>0.286</v>
+      </c>
+      <c r="D5">
+        <v>0.894</v>
+      </c>
+      <c r="E5">
+        <v>0.365</v>
+      </c>
+      <c r="F5">
+        <v>0.924</v>
+      </c>
+      <c r="G5">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.365</v>
+      </c>
+      <c r="C6">
+        <v>0.399</v>
+      </c>
+      <c r="D6">
+        <v>0.913</v>
+      </c>
+      <c r="E6">
+        <v>0.297</v>
+      </c>
+      <c r="F6">
+        <v>0.993</v>
+      </c>
+      <c r="G6">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>0.676</v>
+      </c>
+      <c r="C7">
+        <v>0.283</v>
+      </c>
+      <c r="D7">
+        <v>0.913</v>
+      </c>
+      <c r="E7">
+        <v>0.119</v>
+      </c>
+      <c r="F7">
+        <v>0.544</v>
+      </c>
+      <c r="G7">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>0.204</v>
+      </c>
+      <c r="C8">
+        <v>0.237</v>
+      </c>
+      <c r="D8">
+        <v>0.355</v>
+      </c>
+      <c r="E8">
+        <v>0.583</v>
+      </c>
+      <c r="F8">
+        <v>0.775</v>
+      </c>
+      <c r="G8">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>0.303</v>
+      </c>
+      <c r="C9">
+        <v>0.169</v>
+      </c>
+      <c r="D9">
+        <v>0.611</v>
+      </c>
+      <c r="E9">
+        <v>0.08</v>
+      </c>
+      <c r="F9">
+        <v>0.728</v>
+      </c>
+      <c r="G9">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>0.459</v>
+      </c>
+      <c r="C10">
+        <v>0.638</v>
+      </c>
+      <c r="D10">
+        <v>0.866</v>
+      </c>
+      <c r="E10">
+        <v>0.373</v>
+      </c>
+      <c r="F10">
+        <v>0.62</v>
+      </c>
+      <c r="G10">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>0.532</v>
+      </c>
+      <c r="C11">
+        <v>0.492</v>
+      </c>
+      <c r="D11">
+        <v>0.501</v>
+      </c>
+      <c r="E11">
+        <v>0.791</v>
+      </c>
+      <c r="F11">
+        <v>0.846</v>
+      </c>
+      <c r="G11">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>0.49</v>
+      </c>
+      <c r="C12">
+        <v>0.517</v>
+      </c>
       <c r="D12">
-        <v>0.115</v>
+        <v>0.438</v>
       </c>
       <c r="E12">
-        <v>0.131</v>
+        <v>0.472</v>
       </c>
       <c r="F12">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.871</v>
+      </c>
+      <c r="G12">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13">
-        <v>0.024</v>
+        <v>0.423</v>
       </c>
       <c r="C13">
-        <v>0.215</v>
+        <v>0.836</v>
       </c>
       <c r="D13">
-        <v>0.037</v>
+        <v>0.704</v>
       </c>
       <c r="E13">
-        <v>0.047</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F13">
-        <v>0.001</v>
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.849</v>
       </c>
     </row>
   </sheetData>
@@ -3319,13 +4025,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3341,10 +4047,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0.024</v>
@@ -3361,10 +4070,13 @@
       <c r="F2">
         <v>0.002</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.022</v>
@@ -3381,10 +4093,13 @@
       <c r="F3">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.126</v>
@@ -3401,10 +4116,13 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.019</v>
@@ -3421,10 +4139,13 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.002</v>
@@ -3441,10 +4162,13 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.008999999999999999</v>
@@ -3461,10 +4185,13 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.034</v>
@@ -3481,10 +4208,13 @@
       <c r="F8">
         <v>0.002</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0.032</v>
@@ -3501,10 +4231,13 @@
       <c r="F9">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.186</v>
@@ -3521,10 +4254,13 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0.003</v>
@@ -3541,10 +4277,13 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0.004</v>
@@ -3561,10 +4300,13 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0.2</v>
@@ -3579,6 +4321,936 @@
         <v>0.028</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>0.438</v>
+      </c>
+      <c r="C2">
+        <v>0.554</v>
+      </c>
+      <c r="D2">
+        <v>0.272</v>
+      </c>
+      <c r="E2">
+        <v>0.704</v>
+      </c>
+      <c r="F2">
+        <v>0.144</v>
+      </c>
+      <c r="G2">
+        <v>0.08599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+      <c r="C3">
+        <v>0.874</v>
+      </c>
+      <c r="D3">
+        <v>0.299</v>
+      </c>
+      <c r="E3">
+        <v>0.71</v>
+      </c>
+      <c r="F3">
+        <v>0.116</v>
+      </c>
+      <c r="G3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>0.492</v>
+      </c>
+      <c r="C4">
+        <v>0.789</v>
+      </c>
+      <c r="D4">
+        <v>0.259</v>
+      </c>
+      <c r="E4">
+        <v>0.772</v>
+      </c>
+      <c r="F4">
+        <v>0.294</v>
+      </c>
+      <c r="G4">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>0.513</v>
+      </c>
+      <c r="C5">
+        <v>0.083</v>
+      </c>
+      <c r="D5">
+        <v>0.186</v>
+      </c>
+      <c r="E5">
+        <v>0.591</v>
+      </c>
+      <c r="F5">
+        <v>0.222</v>
+      </c>
+      <c r="G5">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.465</v>
+      </c>
+      <c r="C6">
+        <v>0.74</v>
+      </c>
+      <c r="D6">
+        <v>0.318</v>
+      </c>
+      <c r="E6">
+        <v>0.73</v>
+      </c>
+      <c r="F6">
+        <v>0.065</v>
+      </c>
+      <c r="G6">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>0.398</v>
+      </c>
+      <c r="C7">
+        <v>0.358</v>
+      </c>
+      <c r="D7">
+        <v>0.229</v>
+      </c>
+      <c r="E7">
+        <v>0.678</v>
+      </c>
+      <c r="F7">
+        <v>0.439</v>
+      </c>
+      <c r="G7">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>0.614</v>
+      </c>
+      <c r="E8">
+        <v>0.267</v>
+      </c>
+      <c r="F8">
+        <v>0.298</v>
+      </c>
+      <c r="G8">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>0.312</v>
+      </c>
+      <c r="C9">
+        <v>0.608</v>
+      </c>
+      <c r="D9">
+        <v>0.591</v>
+      </c>
+      <c r="E9">
+        <v>0.225</v>
+      </c>
+      <c r="F9">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>0.503</v>
+      </c>
+      <c r="C10">
+        <v>0.164</v>
+      </c>
+      <c r="D10">
+        <v>0.199</v>
+      </c>
+      <c r="E10">
+        <v>0.288</v>
+      </c>
+      <c r="F10">
+        <v>0.304</v>
+      </c>
+      <c r="G10">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>0.331</v>
+      </c>
+      <c r="C11">
+        <v>0.127</v>
+      </c>
+      <c r="D11">
+        <v>0.57</v>
+      </c>
+      <c r="E11">
+        <v>0.235</v>
+      </c>
+      <c r="F11">
+        <v>0.032</v>
+      </c>
+      <c r="G11">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>0.267</v>
+      </c>
+      <c r="C12">
+        <v>0.059</v>
+      </c>
+      <c r="D12">
+        <v>0.223</v>
+      </c>
+      <c r="E12">
+        <v>0.391</v>
+      </c>
+      <c r="F12">
+        <v>0.128</v>
+      </c>
+      <c r="G12">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>0.056</v>
+      </c>
+      <c r="C13">
+        <v>0.118</v>
+      </c>
+      <c r="D13">
+        <v>0.001</v>
+      </c>
+      <c r="E13">
+        <v>0.617</v>
+      </c>
+      <c r="F13">
+        <v>0.422</v>
+      </c>
+      <c r="G13">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>0.467</v>
+      </c>
+      <c r="C2">
+        <v>0.436</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>0.492</v>
+      </c>
+      <c r="F2">
+        <v>0.966</v>
+      </c>
+      <c r="G2">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3">
+        <v>0.053</v>
+      </c>
+      <c r="D3">
+        <v>0.427</v>
+      </c>
+      <c r="E3">
+        <v>0.267</v>
+      </c>
+      <c r="F3">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>0.454</v>
+      </c>
+      <c r="C4">
+        <v>0.006</v>
+      </c>
+      <c r="D4">
+        <v>0.517</v>
+      </c>
+      <c r="E4">
+        <v>0.185</v>
+      </c>
+      <c r="F4">
+        <v>0.397</v>
+      </c>
+      <c r="G4">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>0.275</v>
+      </c>
+      <c r="C5">
+        <v>0.366</v>
+      </c>
+      <c r="D5">
+        <v>0.061</v>
+      </c>
+      <c r="E5">
+        <v>0.538</v>
+      </c>
+      <c r="F5">
+        <v>0.586</v>
+      </c>
+      <c r="G5">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.58</v>
+      </c>
+      <c r="C6">
+        <v>0.121</v>
+      </c>
+      <c r="D6">
+        <v>0.756</v>
+      </c>
+      <c r="E6">
+        <v>0.239</v>
+      </c>
+      <c r="F6">
+        <v>0.392</v>
+      </c>
+      <c r="G6">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>0.984</v>
+      </c>
+      <c r="C7">
+        <v>0.226</v>
+      </c>
+      <c r="D7">
+        <v>0.751</v>
+      </c>
+      <c r="E7">
+        <v>0.291</v>
+      </c>
+      <c r="F7">
+        <v>0.325</v>
+      </c>
+      <c r="G7">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>0.178</v>
+      </c>
+      <c r="C8">
+        <v>0.294</v>
+      </c>
+      <c r="D8">
+        <v>0.017</v>
+      </c>
+      <c r="E8">
+        <v>0.045</v>
+      </c>
+      <c r="F8">
+        <v>0.574</v>
+      </c>
+      <c r="G8">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.065</v>
+      </c>
+      <c r="D9">
+        <v>0.482</v>
+      </c>
+      <c r="E9">
+        <v>0.251</v>
+      </c>
+      <c r="F9">
+        <v>0.875</v>
+      </c>
+      <c r="G9">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>0.198</v>
+      </c>
+      <c r="C10">
+        <v>0.214</v>
+      </c>
+      <c r="D10">
+        <v>0.486</v>
+      </c>
+      <c r="E10">
+        <v>0.741</v>
+      </c>
+      <c r="F10">
+        <v>0.538</v>
+      </c>
+      <c r="G10">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>0.151</v>
+      </c>
+      <c r="C11">
+        <v>0.388</v>
+      </c>
+      <c r="D11">
+        <v>0.044</v>
+      </c>
+      <c r="E11">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.742</v>
+      </c>
+      <c r="G11">
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>0.825</v>
+      </c>
+      <c r="C12">
+        <v>0.171</v>
+      </c>
+      <c r="D12">
+        <v>0.092</v>
+      </c>
+      <c r="E12">
+        <v>0.518</v>
+      </c>
+      <c r="F12">
+        <v>0.765</v>
+      </c>
+      <c r="G12">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>0.752</v>
+      </c>
+      <c r="C13">
+        <v>0.165</v>
+      </c>
+      <c r="D13">
+        <v>0.63</v>
+      </c>
+      <c r="E13">
+        <v>0.707</v>
+      </c>
+      <c r="F13">
+        <v>0.92</v>
+      </c>
+      <c r="G13">
+        <v>0.104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.604</v>
+      </c>
+      <c r="E2">
+        <v>0.004</v>
+      </c>
+      <c r="F2">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>0.31</v>
+      </c>
+      <c r="C3">
+        <v>0.031</v>
+      </c>
+      <c r="D3">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.024</v>
+      </c>
+      <c r="F3">
+        <v>0.004</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>0.063</v>
+      </c>
+      <c r="C4">
+        <v>0.047</v>
+      </c>
+      <c r="D4">
+        <v>0.284</v>
+      </c>
+      <c r="E4">
+        <v>0.012</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>0.056</v>
+      </c>
+      <c r="C5">
+        <v>0.032</v>
+      </c>
+      <c r="D5">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.004</v>
+      </c>
+      <c r="F5">
+        <v>0.001</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.49</v>
+      </c>
+      <c r="E6">
+        <v>0.143</v>
+      </c>
+      <c r="F6">
+        <v>0.003</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>0.004</v>
+      </c>
+      <c r="D7">
+        <v>0.197</v>
+      </c>
+      <c r="E7">
+        <v>0.047</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>0.048</v>
+      </c>
+      <c r="C8">
+        <v>0.028</v>
+      </c>
+      <c r="D8">
+        <v>0.36</v>
+      </c>
+      <c r="E8">
+        <v>0.034</v>
+      </c>
+      <c r="F8">
+        <v>0.005</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>0.037</v>
+      </c>
+      <c r="C9">
+        <v>0.004</v>
+      </c>
+      <c r="D9">
+        <v>0.638</v>
+      </c>
+      <c r="E9">
+        <v>0.129</v>
+      </c>
+      <c r="F9">
+        <v>0.02</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>0.124</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.488</v>
+      </c>
+      <c r="E10">
+        <v>0.022</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>0.017</v>
+      </c>
+      <c r="C11">
+        <v>0.083</v>
+      </c>
+      <c r="D11">
+        <v>0.082</v>
+      </c>
+      <c r="E11">
+        <v>0.144</v>
+      </c>
+      <c r="F11">
+        <v>0.003</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>0.008</v>
+      </c>
+      <c r="C12">
+        <v>0.047</v>
+      </c>
+      <c r="D12">
+        <v>0.115</v>
+      </c>
+      <c r="E12">
+        <v>0.131</v>
+      </c>
+      <c r="F12">
+        <v>0.039</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>0.024</v>
+      </c>
+      <c r="C13">
+        <v>0.215</v>
+      </c>
+      <c r="D13">
+        <v>0.037</v>
+      </c>
+      <c r="E13">
+        <v>0.047</v>
+      </c>
+      <c r="F13">
+        <v>0.001</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>
@@ -3589,13 +5261,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3611,10 +5283,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0.624</v>
@@ -3631,10 +5306,13 @@
       <c r="F2">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.849</v>
@@ -3651,10 +5329,13 @@
       <c r="F3">
         <v>0.06900000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.409</v>
@@ -3671,10 +5352,13 @@
       <c r="F4">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.528</v>
@@ -3691,10 +5375,13 @@
       <c r="F5">
         <v>0.636</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.63</v>
@@ -3711,10 +5398,13 @@
       <c r="F6">
         <v>0.347</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.254</v>
@@ -3731,10 +5421,13 @@
       <c r="F7">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.661</v>
@@ -3751,10 +5444,13 @@
       <c r="F8">
         <v>0.742</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0.141</v>
@@ -3771,10 +5467,13 @@
       <c r="F9">
         <v>0.179</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.384</v>
@@ -3791,10 +5490,13 @@
       <c r="F10">
         <v>0.063</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0.788</v>
@@ -3811,10 +5513,13 @@
       <c r="F11">
         <v>0.586</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0.325</v>
@@ -3831,10 +5536,13 @@
       <c r="F12">
         <v>0.153</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0.287</v>
@@ -3850,6 +5558,9 @@
       </c>
       <c r="F13">
         <v>0.041</v>
+      </c>
+      <c r="G13">
+        <v>0.182</v>
       </c>
     </row>
   </sheetData>
@@ -3859,13 +5570,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3881,10 +5592,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0.017</v>
@@ -3901,10 +5615,13 @@
       <c r="F2">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.035</v>
@@ -3921,10 +5638,13 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.027</v>
@@ -3941,10 +5661,13 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0.025</v>
@@ -3961,10 +5684,13 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.043</v>
@@ -3981,10 +5707,13 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0.004</v>
@@ -4001,10 +5730,13 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.065</v>
@@ -4021,10 +5753,13 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0.008</v>
@@ -4041,10 +5776,13 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.001</v>
@@ -4061,10 +5799,13 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0.016</v>
@@ -4081,10 +5822,13 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0.008999999999999999</v>
@@ -4101,10 +5845,13 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0.004</v>
@@ -4119,6 +5866,9 @@
         <v>0.019</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>
@@ -4129,13 +5879,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4151,245 +5901,284 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>0.378</v>
+        <v>0.706</v>
       </c>
       <c r="C2">
-        <v>0.102</v>
+        <v>0.021</v>
       </c>
       <c r="D2">
-        <v>0.167</v>
+        <v>0.162</v>
       </c>
       <c r="E2">
-        <v>0.832</v>
+        <v>0.537</v>
       </c>
       <c r="F2">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.012</v>
+      </c>
+      <c r="G2">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>0.198</v>
+        <v>0.324</v>
       </c>
       <c r="C3">
-        <v>0.068</v>
+        <v>0.336</v>
       </c>
       <c r="D3">
-        <v>0.188</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E3">
-        <v>0.222</v>
+        <v>0.645</v>
       </c>
       <c r="F3">
-        <v>0.671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.036</v>
+      </c>
+      <c r="G3">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>0.42</v>
+        <v>0.327</v>
       </c>
       <c r="C4">
+        <v>0.302</v>
+      </c>
+      <c r="D4">
+        <v>0.27</v>
+      </c>
+      <c r="E4">
+        <v>0.539</v>
+      </c>
+      <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0.465</v>
+      </c>
+      <c r="C5">
+        <v>0.023</v>
+      </c>
+      <c r="D5">
+        <v>0.201</v>
+      </c>
+      <c r="E5">
+        <v>0.475</v>
+      </c>
+      <c r="F5">
+        <v>0.042</v>
+      </c>
+      <c r="G5">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0.796</v>
+      </c>
+      <c r="C6">
+        <v>0.368</v>
+      </c>
+      <c r="D6">
+        <v>0.259</v>
+      </c>
+      <c r="E6">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.098</v>
+      </c>
+      <c r="G6">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0.716</v>
+      </c>
+      <c r="C7">
+        <v>0.249</v>
+      </c>
+      <c r="D7">
+        <v>0.646</v>
+      </c>
+      <c r="E7">
+        <v>0.663</v>
+      </c>
+      <c r="F7">
+        <v>0.006</v>
+      </c>
+      <c r="G7">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.385</v>
+      </c>
+      <c r="D8">
+        <v>0.799</v>
+      </c>
+      <c r="E8">
+        <v>0.393</v>
+      </c>
+      <c r="F8">
+        <v>0.077</v>
+      </c>
+      <c r="G8">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.184</v>
+      </c>
+      <c r="C9">
+        <v>0.495</v>
+      </c>
+      <c r="D9">
+        <v>0.226</v>
+      </c>
+      <c r="E9">
+        <v>0.414</v>
+      </c>
+      <c r="F9">
+        <v>0.089</v>
+      </c>
+      <c r="G9">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0.232</v>
+      </c>
+      <c r="C10">
+        <v>0.33</v>
+      </c>
+      <c r="D10">
+        <v>0.139</v>
+      </c>
+      <c r="E10">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.001</v>
+      </c>
+      <c r="G10">
         <v>0.061</v>
       </c>
-      <c r="D4">
-        <v>0.202</v>
-      </c>
-      <c r="E4">
-        <v>0.149</v>
-      </c>
-      <c r="F4">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5">
-        <v>0.308</v>
-      </c>
-      <c r="C5">
-        <v>0.269</v>
-      </c>
-      <c r="D5">
-        <v>0.18</v>
-      </c>
-      <c r="E5">
-        <v>0.385</v>
-      </c>
-      <c r="F5">
-        <v>0.205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>0.348</v>
-      </c>
-      <c r="C6">
-        <v>0.011</v>
-      </c>
-      <c r="D6">
-        <v>0.513</v>
-      </c>
-      <c r="E6">
-        <v>0.206</v>
-      </c>
-      <c r="F6">
-        <v>0.232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>0.963</v>
-      </c>
-      <c r="C7">
-        <v>0.006</v>
-      </c>
-      <c r="D7">
-        <v>0.597</v>
-      </c>
-      <c r="E7">
-        <v>0.229</v>
-      </c>
-      <c r="F7">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8">
-        <v>0.624</v>
-      </c>
-      <c r="C8">
-        <v>0.347</v>
-      </c>
-      <c r="D8">
-        <v>0.011</v>
-      </c>
-      <c r="E8">
-        <v>0.316</v>
-      </c>
-      <c r="F8">
-        <v>0.652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>0.882</v>
-      </c>
-      <c r="C9">
-        <v>0.002</v>
-      </c>
-      <c r="D9">
-        <v>0.089</v>
-      </c>
-      <c r="E9">
-        <v>0.134</v>
-      </c>
-      <c r="F9">
-        <v>0.5610000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10">
-        <v>0.831</v>
-      </c>
-      <c r="C10">
-        <v>0.007</v>
-      </c>
-      <c r="D10">
-        <v>0.193</v>
-      </c>
-      <c r="E10">
-        <v>0.286</v>
-      </c>
-      <c r="F10">
-        <v>0.259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>0.177</v>
+        <v>0.863</v>
       </c>
       <c r="C11">
-        <v>0.769</v>
+        <v>0.615</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>0.897</v>
       </c>
       <c r="E11">
-        <v>0.219</v>
+        <v>0.875</v>
       </c>
       <c r="F11">
-        <v>0.345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.355</v>
+      </c>
+      <c r="G11">
+        <v>0.533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>0.368</v>
+        <v>0.253</v>
       </c>
       <c r="C12">
-        <v>0.014</v>
+        <v>0.57</v>
       </c>
       <c r="D12">
-        <v>0.194</v>
+        <v>0.588</v>
       </c>
       <c r="E12">
-        <v>0.419</v>
+        <v>0.487</v>
       </c>
       <c r="F12">
-        <v>0.773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.056</v>
+      </c>
+      <c r="G12">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>0.777</v>
+        <v>0.315</v>
       </c>
       <c r="C13">
-        <v>0.025</v>
+        <v>0.579</v>
       </c>
       <c r="D13">
-        <v>0.379</v>
+        <v>0.331</v>
       </c>
       <c r="E13">
-        <v>0.546</v>
+        <v>0.386</v>
       </c>
       <c r="F13">
-        <v>0.32</v>
+        <v>0.004</v>
+      </c>
+      <c r="G13">
+        <v>0.162</v>
       </c>
     </row>
   </sheetData>
@@ -4399,13 +6188,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4421,245 +6210,284 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>0.092</v>
+        <v>0.296</v>
       </c>
       <c r="C2">
-        <v>0.063</v>
+        <v>0.006</v>
       </c>
       <c r="D2">
-        <v>0.606</v>
+        <v>0.053</v>
       </c>
       <c r="E2">
-        <v>0.002</v>
+        <v>0.018</v>
       </c>
       <c r="F2">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>0.199</v>
+        <v>0.26</v>
       </c>
       <c r="C3">
-        <v>0.014</v>
+        <v>0.056</v>
       </c>
       <c r="D3">
-        <v>0.257</v>
+        <v>0.14</v>
       </c>
       <c r="E3">
+        <v>0.012</v>
+      </c>
+      <c r="F3">
+        <v>0.033</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>0.608</v>
+      </c>
+      <c r="C4">
         <v>0.005</v>
       </c>
-      <c r="F3">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4">
-        <v>0.017</v>
-      </c>
-      <c r="C4">
-        <v>0.036</v>
-      </c>
       <c r="D4">
-        <v>0.352</v>
+        <v>0.161</v>
       </c>
       <c r="E4">
-        <v>0.016</v>
+        <v>0.083</v>
       </c>
       <c r="F4">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>0.074</v>
+        <v>0.018</v>
       </c>
       <c r="C5">
-        <v>0.034</v>
+        <v>0.002</v>
       </c>
       <c r="D5">
-        <v>0.356</v>
+        <v>0.092</v>
       </c>
       <c r="E5">
+        <v>0.27</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0.052</v>
+      </c>
+      <c r="C6">
+        <v>0.014</v>
+      </c>
+      <c r="D6">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.04</v>
+      </c>
+      <c r="F6">
         <v>0.007</v>
       </c>
-      <c r="F5">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0.206</v>
+      </c>
+      <c r="C7">
+        <v>0.002</v>
+      </c>
+      <c r="D7">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.099</v>
+      </c>
+      <c r="F7">
+        <v>0.002</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>0.201</v>
+      </c>
+      <c r="C8">
+        <v>0.002</v>
+      </c>
+      <c r="D8">
+        <v>0.302</v>
+      </c>
+      <c r="E8">
+        <v>0.253</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.183</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>0.255</v>
+      </c>
+      <c r="E9">
+        <v>0.062</v>
+      </c>
+      <c r="F9">
+        <v>0.002</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0.338</v>
+      </c>
+      <c r="C10">
+        <v>0.008</v>
+      </c>
+      <c r="D10">
+        <v>0.136</v>
+      </c>
+      <c r="E10">
+        <v>0.221</v>
+      </c>
+      <c r="F10">
+        <v>0.003</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>0.057</v>
+      </c>
+      <c r="C11">
+        <v>0.053</v>
+      </c>
+      <c r="D11">
+        <v>0.003</v>
+      </c>
+      <c r="E11">
+        <v>0.06</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>0.054</v>
+      </c>
+      <c r="C12">
+        <v>0.08</v>
+      </c>
+      <c r="D12">
+        <v>0.003</v>
+      </c>
+      <c r="E12">
+        <v>0.03</v>
+      </c>
+      <c r="F12">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>0.023</v>
-      </c>
-      <c r="C6">
-        <v>0.005</v>
-      </c>
-      <c r="D6">
-        <v>0.192</v>
-      </c>
-      <c r="E6">
-        <v>0.043</v>
-      </c>
-      <c r="F6">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7">
-        <v>0.001</v>
-      </c>
-      <c r="C7">
-        <v>0.005</v>
-      </c>
-      <c r="D7">
-        <v>0.105</v>
-      </c>
-      <c r="E7">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8">
-        <v>0.063</v>
-      </c>
-      <c r="C8">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.255</v>
-      </c>
-      <c r="E8">
-        <v>0.005</v>
-      </c>
-      <c r="F8">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9">
-        <v>0.089</v>
-      </c>
-      <c r="C9">
-        <v>0.006</v>
-      </c>
-      <c r="D9">
-        <v>0.21</v>
-      </c>
-      <c r="E9">
-        <v>0.064</v>
-      </c>
-      <c r="F9">
-        <v>0.041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10">
-        <v>0.011</v>
-      </c>
-      <c r="C10">
-        <v>0.002</v>
-      </c>
-      <c r="D10">
-        <v>0.346</v>
-      </c>
-      <c r="E10">
-        <v>0.12</v>
-      </c>
-      <c r="F10">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11">
-        <v>0.039</v>
-      </c>
-      <c r="C11">
-        <v>0.052</v>
-      </c>
-      <c r="D11">
-        <v>0.024</v>
-      </c>
-      <c r="E11">
-        <v>0.008</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12">
-        <v>0.008</v>
-      </c>
-      <c r="C12">
-        <v>0.098</v>
-      </c>
-      <c r="D12">
-        <v>0.013</v>
-      </c>
-      <c r="E12">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.06900000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>0.001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="C13">
-        <v>0.103</v>
+        <v>0.053</v>
       </c>
       <c r="D13">
-        <v>0.048</v>
+        <v>0.004</v>
       </c>
       <c r="E13">
-        <v>0.148</v>
+        <v>0.027</v>
       </c>
       <c r="F13">
-        <v>0.002</v>
+        <v>0.003</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4669,13 +6497,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4691,10 +6519,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0.395</v>
@@ -4711,10 +6542,13 @@
       <c r="F2">
         <v>0.453</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.605</v>
@@ -4731,10 +6565,13 @@
       <c r="F3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0.861</v>
@@ -4751,10 +6588,13 @@
       <c r="F4">
         <v>0.233</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0.635</v>
@@ -4771,10 +6611,13 @@
       <c r="F5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0.923</v>
@@ -4791,10 +6634,13 @@
       <c r="F6">
         <v>0.711</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0.952</v>
@@ -4811,10 +6657,13 @@
       <c r="F7">
         <v>0.432</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>0.539</v>
@@ -4831,10 +6680,13 @@
       <c r="F8">
         <v>0.294</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0.8179999999999999</v>
@@ -4851,10 +6703,13 @@
       <c r="F9">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>0.906</v>
@@ -4871,10 +6726,13 @@
       <c r="F10">
         <v>0.542</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0.404</v>
@@ -4891,10 +6749,13 @@
       <c r="F11">
         <v>0.8110000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0.194</v>
@@ -4911,10 +6772,13 @@
       <c r="F12">
         <v>0.523</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>0.838</v>
@@ -4930,6 +6794,9 @@
       </c>
       <c r="F13">
         <v>0.381</v>
+      </c>
+      <c r="G13">
+        <v>0.185</v>
       </c>
     </row>
   </sheetData>
@@ -4939,13 +6806,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4961,10 +6828,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0.659</v>
@@ -4981,10 +6851,13 @@
       <c r="F2">
         <v>0.011</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.21</v>
@@ -5001,10 +6874,13 @@
       <c r="F3">
         <v>0.006</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0.703</v>
@@ -5021,10 +6897,13 @@
       <c r="F4">
         <v>0.116</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0.233</v>
@@ -5041,10 +6920,13 @@
       <c r="F5">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0.038</v>
@@ -5061,10 +6943,13 @@
       <c r="F6">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0.272</v>
@@ -5081,10 +6966,13 @@
       <c r="F7">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>0.434</v>
@@ -5101,10 +6989,13 @@
       <c r="F8">
         <v>0.002</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0.311</v>
@@ -5121,10 +7012,13 @@
       <c r="F9">
         <v>0.003</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>0.6919999999999999</v>
@@ -5141,10 +7035,13 @@
       <c r="F10">
         <v>0.037</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0.074</v>
@@ -5161,10 +7058,13 @@
       <c r="F11">
         <v>0.004</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0.19</v>
@@ -5181,10 +7081,13 @@
       <c r="F12">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>0.584</v>
@@ -5200,6 +7103,9 @@
       </c>
       <c r="F13">
         <v>0.015</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5209,13 +7115,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5231,10 +7137,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0.461</v>
@@ -5251,10 +7160,13 @@
       <c r="F2">
         <v>0.423</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.275</v>
@@ -5271,10 +7183,13 @@
       <c r="F3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0.329</v>
@@ -5291,10 +7206,13 @@
       <c r="F4">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0.666</v>
@@ -5311,10 +7229,13 @@
       <c r="F5">
         <v>0.179</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.08400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0.316</v>
@@ -5331,10 +7252,13 @@
       <c r="F6">
         <v>0.115</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0.304</v>
@@ -5351,10 +7275,13 @@
       <c r="F7">
         <v>0.438</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>0.796</v>
@@ -5371,10 +7298,13 @@
       <c r="F8">
         <v>0.026</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0.08799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0.633</v>
@@ -5391,10 +7321,13 @@
       <c r="F9">
         <v>0.012</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>0.355</v>
@@ -5411,10 +7344,13 @@
       <c r="F10">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0.725</v>
@@ -5431,10 +7367,13 @@
       <c r="F11">
         <v>0.103</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0.622</v>
@@ -5451,10 +7390,13 @@
       <c r="F12">
         <v>0.397</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>0.125</v>
@@ -5470,6 +7412,9 @@
       </c>
       <c r="F13">
         <v>0.777</v>
+      </c>
+      <c r="G13">
+        <v>0.389</v>
       </c>
     </row>
   </sheetData>
